--- a/biology/Écologie/Ana_Martinez_de_Luco/Ana_Martinez_de_Luco.xlsx
+++ b/biology/Écologie/Ana_Martinez_de_Luco/Ana_Martinez_de_Luco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana Martinez de Luco, née en 1960 au Pays basque espagnol, est une religieuse de nationalité américaine, organisatrice communautaire, personnalité associative et entrepreneuriale sociale et écologique chrétienne, et est fondatrice de Sure We Can (en)[1]. Sure We Can est la seule organisation à but non lucratif de la ville de New York[2].
-Les objectifs d'Ana de Luco incluent la création d'emplois dignes pour les conserveries, en particulier à destination de personnes immigrantes, handicapées, âgées, pauvres et sans-abri[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana Martinez de Luco, née en 1960 au Pays basque espagnol, est une religieuse de nationalité américaine, organisatrice communautaire, personnalité associative et entrepreneuriale sociale et écologique chrétienne, et est fondatrice de Sure We Can (en). Sure We Can est la seule organisation à but non lucratif de la ville de New York.
+Les objectifs d'Ana de Luco incluent la création d'emplois dignes pour les conserveries, en particulier à destination de personnes immigrantes, handicapées, âgées, pauvres et sans-abri.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De Luco est née au Pays basque espagnol[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Luco est née au Pays basque espagnol.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Vie adulte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ana de Luco devient religieuse à 19 ans[4]. Elle a animé des ateliers et enseigné les coopératives de travail[Quoi ?][5]. Son affiliation religieuse est celle de la Sisters for Christian Community (en)[6].
-De Luco déménage à New York en 2004 et fonde Sure We Can en 2007[7].
-En 2016, elle démissionne de son poste de direction à la Sure We Can[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana de Luco devient religieuse à 19 ans. Elle a animé des ateliers et enseigné les coopératives de travail[Quoi ?]. Son affiliation religieuse est celle de la Sisters for Christian Community (en).
+De Luco déménage à New York en 2004 et fonde Sure We Can en 2007.
+En 2016, elle démissionne de son poste de direction à la Sure We Can.
 </t>
         </is>
       </c>
